--- a/results.xlsx
+++ b/results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Validated Addresses" sheetId="1" r:id="rId1"/>
+    <sheet name="Validated_Results" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -375,13 +375,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>address</v>
+      </c>
+      <c r="B1" t="str">
+        <v>validatedAddresses</v>
+      </c>
+      <c r="C1" t="str">
+        <v>coordinates</v>
+      </c>
+      <c r="D1" t="str">
+        <v>resolutionQuality</v>
+      </c>
+      <c r="E1" t="str">
+        <v>taxAuthorities</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" t="str">
+        <v>Intersection</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" t="str">
+        <v>Intersection</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -375,41 +375,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>address</v>
+        <v>line1</v>
       </c>
       <c r="B1" t="str">
-        <v>validatedAddresses</v>
+        <v>city</v>
       </c>
       <c r="C1" t="str">
-        <v>coordinates</v>
+        <v>postalCode</v>
       </c>
       <c r="D1" t="str">
-        <v>resolutionQuality</v>
+        <v>region</v>
       </c>
       <c r="E1" t="str">
-        <v>taxAuthorities</v>
+        <v>country</v>
+      </c>
+      <c r="F1" t="str">
+        <v>validatedAddressType</v>
+      </c>
+      <c r="G1" t="str">
+        <v>validatedLine1</v>
+      </c>
+      <c r="H1" t="str">
+        <v>validatedCity</v>
+      </c>
+      <c r="I1" t="str">
+        <v>validatedPostalCode</v>
+      </c>
+      <c r="J1" t="str">
+        <v>validatedRegion</v>
+      </c>
+      <c r="K1" t="str">
+        <v>validatedLatitude</v>
+      </c>
+      <c r="L1" t="str">
+        <v>validatedLongitude</v>
+      </c>
+      <c r="M1" t="str">
+        <v>validatedResolutionQuality</v>
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <v>2790 NE Strand</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Bremerton</v>
+      </c>
+      <c r="C2" t="str">
+        <v>98311</v>
+      </c>
       <c r="D2" t="str">
+        <v>WA</v>
+      </c>
+      <c r="E2" t="str">
+        <v>US</v>
+      </c>
+      <c r="F2" t="str">
+        <v>StreetOrResidentialAddress</v>
+      </c>
+      <c r="G2" t="str">
+        <v>2790 NE STRAND RD</v>
+      </c>
+      <c r="H2" t="str">
+        <v>BREMERTON</v>
+      </c>
+      <c r="I2" t="str">
+        <v>98311-9315</v>
+      </c>
+      <c r="J2" t="str">
+        <v>WA</v>
+      </c>
+      <c r="K2">
+        <v>47.644923</v>
+      </c>
+      <c r="L2">
+        <v>-122.61217</v>
+      </c>
+      <c r="M2" t="str">
         <v>Intersection</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <v>26772 Calle Maria</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Capistrano Beach</v>
+      </c>
+      <c r="C3" t="str">
+        <v>92624</v>
+      </c>
       <c r="D3" t="str">
+        <v>CA</v>
+      </c>
+      <c r="E3" t="str">
+        <v>US</v>
+      </c>
+      <c r="F3" t="str">
+        <v>StreetOrResidentialAddress</v>
+      </c>
+      <c r="G3" t="str">
+        <v>26772 CALLE MARIA</v>
+      </c>
+      <c r="H3" t="str">
+        <v>CAPISTRANO BEACH</v>
+      </c>
+      <c r="I3" t="str">
+        <v>92624-1527</v>
+      </c>
+      <c r="J3" t="str">
+        <v>CA</v>
+      </c>
+      <c r="K3">
+        <v>33.457372</v>
+      </c>
+      <c r="L3">
+        <v>-117.662746</v>
+      </c>
+      <c r="M3" t="str">
         <v>Intersection</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M3"/>
   </ignoredErrors>
 </worksheet>
 </file>